--- a/assets/SKUReference.xlsx
+++ b/assets/SKUReference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abu89\PycharmProjects\SAPAutomation\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E12B0D3-940C-4A1D-B182-7FE8762AACB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AC52E8-997B-4CA9-9537-84B7C5EE0DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52C72E75-956F-42DD-B76D-FDF8349AEC82}"/>
+    <workbookView xWindow="3165" yWindow="4140" windowWidth="21600" windowHeight="11385" xr2:uid="{52C72E75-956F-42DD-B76D-FDF8349AEC82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>SKU</t>
   </si>
@@ -251,10 +251,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -275,9 +274,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -315,7 +314,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -421,7 +420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -563,7 +562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,468 +570,484 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA945C84-0EFB-4C08-ACC8-A6583E71384A}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1">
+        <v>102000171</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="1">
         <v>102000191</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="1">
         <v>102000192</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="1">
         <v>102000947</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="1">
         <v>102000977</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="1">
         <v>102000946</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="1">
         <v>102001240</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="1">
         <v>102001241</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="1">
         <v>102001049</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="1">
         <v>102001513</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="1">
         <v>102001512</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="1">
         <v>102001516</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="1">
         <v>102001515</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="1">
         <v>102001519</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="1">
         <v>102001517</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="1">
         <v>102000522</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="1">
         <v>102000529</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="1">
         <v>102000207</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="1">
         <v>102000566</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="1">
         <v>102000749</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="1">
         <v>102000739</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="1">
         <v>102000763</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="1">
         <v>102000863</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="1">
         <v>102000620</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="1">
         <v>102000667</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="1">
         <v>102000704</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="1">
         <v>102001823</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D29" s="1">
         <v>102002198</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" t="s">
         <v>47</v>
       </c>
     </row>
